--- a/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>基金代码</t>
   </si>
@@ -22,12 +22,18 @@
     <t>基金名称</t>
   </si>
   <si>
+    <t>基金金额</t>
+  </si>
+  <si>
     <t>股票总仓位</t>
   </si>
   <si>
     <t>仓位占比</t>
   </si>
   <si>
+    <t>持有市值(亿元)</t>
+  </si>
+  <si>
     <t>仓位排名</t>
   </si>
   <si>
@@ -43,10 +49,22 @@
     <t>工银瑞信战略新兴产业混合C</t>
   </si>
   <si>
+    <t>17.96</t>
+  </si>
+  <si>
+    <t>3.32</t>
+  </si>
+  <si>
     <t>86.12</t>
   </si>
   <si>
     <t>1.92</t>
+  </si>
+  <si>
+    <t>0.3448</t>
+  </si>
+  <si>
+    <t>0.0637</t>
   </si>
 </sst>
 </file>
@@ -404,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,44 +444,62 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2">
         <v>10</v>
       </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3">
         <v>10</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
@@ -1,102 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>006615</t>
-  </si>
-  <si>
-    <t>006616</t>
-  </si>
-  <si>
-    <t>工银瑞信战略新兴产业混合A</t>
-  </si>
-  <si>
-    <t>工银瑞信战略新兴产业混合C</t>
-  </si>
-  <si>
-    <t>17.96</t>
-  </si>
-  <si>
-    <t>3.32</t>
-  </si>
-  <si>
-    <t>86.12</t>
-  </si>
-  <si>
-    <t>1.92</t>
-  </si>
-  <si>
-    <t>0.3448</t>
-  </si>
-  <si>
-    <t>0.0637</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -119,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -421,89 +446,185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
@@ -599,12 +599,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -583,7 +584,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -594,17 +595,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -614,13 +635,291 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.85</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0807</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004730</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信量化事件驱动股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q1</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>0.41</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
+++ b/数据整理/stocks/A股/上证主板/600167-联美控股.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,129 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>006615</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>17.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>86.12</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3448</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>10</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006616</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>工银瑞信战略新兴产业混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.12</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0637</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.41</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -866,64 +802,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.1</v>
+          <t>006615</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>17.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3448</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.41</v>
+          <t>006616</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信战略新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0637</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>